--- a/po_analysis_by_asin/B0D3HBKW8C_po_data.xlsx
+++ b/po_analysis_by_asin/B0D3HBKW8C_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>14</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>18</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>10</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>

--- a/po_analysis_by_asin/B0D3HBKW8C_po_data.xlsx
+++ b/po_analysis_by_asin/B0D3HBKW8C_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -549,7 +550,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -591,6 +592,285 @@
       </c>
       <c r="B6" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.705939123019065</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.17312013948997</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.293833826129422</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.25007867866567</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0783435354472</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.40868489082245</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7023779044422994</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.978603841433859</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7759659883690634</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.344935521835357</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.519859954419893</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.540813136339012</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.73504594001737</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.790436688585587</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.575867173673854</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.282706720807741</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.686668900611354</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.284309357678722</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.8881585763257</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.290980036581488</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-3.237939200132748</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.773665503950388</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-3.14027711161347</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.882475059971522</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.541647691175124</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.636058348364071</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.56948908107225</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.305857415789937</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4.041764262725526</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.877974270909896</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-3.640110812626593</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.89375541795898</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.934445247411893</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.887580110968679</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D3HBKW8C_po_data.xlsx
+++ b/po_analysis_by_asin/B0D3HBKW8C_po_data.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,16 +624,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -642,12 +632,6 @@
       <c r="B2" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.705939123019065</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.17312013948997</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -656,12 +640,6 @@
       <c r="B3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.293833826129422</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.25007867866567</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -670,12 +648,6 @@
       <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.0783435354472</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.40868489082245</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -684,12 +656,6 @@
       <c r="B5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.7023779044422994</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.978603841433859</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -698,12 +664,6 @@
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.7759659883690634</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.344935521835357</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -712,12 +672,6 @@
       <c r="B7" t="n">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
-        <v>-1.519859954419893</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.540813136339012</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -726,12 +680,6 @@
       <c r="B8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
-        <v>-2.73504594001737</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.790436688585587</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -740,12 +688,6 @@
       <c r="B9" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
-        <v>-2.575867173673854</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6.282706720807741</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -754,12 +696,6 @@
       <c r="B10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="n">
-        <v>-2.686668900611354</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6.284309357678722</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -768,12 +704,6 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>-2.8881585763257</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.290980036581488</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -782,12 +712,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>-3.237939200132748</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5.773665503950388</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -796,12 +720,6 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
-        <v>-3.14027711161347</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.882475059971522</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -810,12 +728,6 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
-        <v>-3.541647691175124</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5.636058348364071</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -824,12 +736,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>-3.56948908107225</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.305857415789937</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -838,12 +744,6 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
-        <v>-4.041764262725526</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.877974270909896</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -852,12 +752,6 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>-3.640110812626593</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4.89375541795898</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -865,12 +759,6 @@
       </c>
       <c r="B18" t="n">
         <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-3.934445247411893</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.887580110968679</v>
       </c>
     </row>
   </sheetData>
